--- a/data/meta_data/plate12_setup_final.xlsx
+++ b/data/meta_data/plate12_setup_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Dropbox/GLNE_07_Preservation/data/meta_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Begum/Documents/Preservation_Bias/data/process/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F9839-2F2D-C14A-AC99-5536121BEEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676046EB-30FB-5C43-A529-EEA08CD9D95F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="5400" windowWidth="29900" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17820" yWindow="5960" windowWidth="29900" windowHeight="20620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate12_setup_final" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="113">
   <si>
     <t>sample_ID</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>tube_no</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1848,7 +1851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>73228168</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>73228168</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>73228168</v>
       </c>
@@ -1917,7 +1920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>73230767</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>73230767</v>
       </c>
@@ -1963,7 +1966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>73230767</v>
       </c>
@@ -1986,7 +1989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>73236767</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>73236767</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>73236767</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>73243565</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>73243565</v>
       </c>
@@ -2100,8 +2103,11 @@
       <c r="G27" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>73243565</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>73254366</v>
       </c>
@@ -2147,7 +2153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>73254366</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>73254366</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>73257566</v>
       </c>
@@ -2216,7 +2222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>73257566</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>73257566</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>73262166</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>73262166</v>
       </c>
@@ -2307,8 +2313,11 @@
       <c r="G36" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>73262166</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>73264166</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>73264166</v>
       </c>
@@ -2377,7 +2386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>73264166</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>73269366</v>
       </c>
@@ -2423,7 +2432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>73269366</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>73269366</v>
       </c>
@@ -2469,7 +2478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>73269567</v>
       </c>
@@ -2492,7 +2501,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>73269567</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>73269567</v>
       </c>
@@ -2538,7 +2547,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>73280568</v>
       </c>
@@ -2561,7 +2570,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>73280568</v>
       </c>
